--- a/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4596167220303199</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05320823872727402</v>
+        <v>0.05320823872727401</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1484052152054123</v>
+        <v>0.1489751839302853</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.236970301711396</v>
+        <v>0.2422929755425359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2487744707602231</v>
+        <v>0.2483796086669101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01381303726092508</v>
+        <v>0.0146183020715725</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2643864120457099</v>
+        <v>0.2725884885557342</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4664701745995303</v>
+        <v>0.4792672699851174</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5059784797134309</v>
+        <v>0.5087536635692371</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04378320418589216</v>
+        <v>0.04368232474102773</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2245532140753625</v>
+        <v>0.2236856592878262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.389572975549108</v>
+        <v>0.3853304866158345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4032668066575709</v>
+        <v>0.4006739110705551</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03442920965684417</v>
+        <v>0.03384878609010469</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2664870722467139</v>
+        <v>0.264016695737649</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3822426551943686</v>
+        <v>0.3855650727042677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4101088910404432</v>
+        <v>0.4023358800629384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06804768921849644</v>
+        <v>0.06616065149035552</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3991329986505545</v>
+        <v>0.4050225002180087</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.609261068126436</v>
+        <v>0.6113077905444951</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6559994210250806</v>
+        <v>0.6497958257411345</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1184274245615912</v>
+        <v>0.118103630720791</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3137448940173755</v>
+        <v>0.3102271177043158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4879678893575224</v>
+        <v>0.4937336850690387</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5172055897862559</v>
+        <v>0.5095388517629967</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08284245091072688</v>
+        <v>0.07757945991479065</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5212245372731282</v>
+        <v>0.5243380211740625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6207291990393594</v>
+        <v>0.6274281265659551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6827046772961937</v>
+        <v>0.687165434610122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06683762551934037</v>
+        <v>0.06796364731490522</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7236726852265684</v>
+        <v>0.7255384510731401</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8925146096730493</v>
+        <v>0.8918462563995883</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8314512498309985</v>
+        <v>0.8348256579347738</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.160129010248611</v>
+        <v>0.1584760512873111</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6543664884073886</v>
+        <v>0.6517466357637747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7857660244753147</v>
+        <v>0.7888913361608937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.784534205437316</v>
+        <v>0.7831777692699357</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1279157195051683</v>
+        <v>0.1248496209937322</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.637662365922928</v>
+        <v>0.6384167462033024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7314429182695023</v>
+        <v>0.7371444552873437</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7981238144495124</v>
+        <v>0.795659440151126</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1335649585704824</v>
+        <v>0.1359879571108036</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8089627752683541</v>
+        <v>0.8089733818333114</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.945362332424118</v>
+        <v>0.9450619237015943</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8989823851687679</v>
+        <v>0.9030794497822391</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2372821488694266</v>
+        <v>0.2361557440243958</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7243666833726752</v>
+        <v>0.7221642036713439</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8454839587660404</v>
+        <v>0.8450456826760256</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8470220991392738</v>
+        <v>0.8433221889693143</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1782480133846357</v>
+        <v>0.1774222156502803</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7198570470894075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1712398545206986</v>
+        <v>0.1712398545206985</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6930621574002402</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.557551676398308</v>
+        <v>0.5587811781116535</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7075436981438746</v>
+        <v>0.7065807554518312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6772806241598919</v>
+        <v>0.6786486593529716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1391483997782405</v>
+        <v>0.141339728990784</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6570631274860212</v>
+        <v>0.6535261276670935</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9245532762167489</v>
+        <v>0.9273260171775117</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7608722925665502</v>
+        <v>0.7591115886513636</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1940146199396476</v>
+        <v>0.1927750465819731</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6226593078133074</v>
+        <v>0.619900873271454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8203939138326205</v>
+        <v>0.8279853680905067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7337396629165821</v>
+        <v>0.7333116027965579</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1741551088116725</v>
+        <v>0.1739312062834876</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.650289959182954</v>
+        <v>0.6439730040834086</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7808812567803132</v>
+        <v>0.7800628061289338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7615258082711089</v>
+        <v>0.7600440237267144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2032988059445552</v>
+        <v>0.203469770062085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7311484834581772</v>
+        <v>0.7304964126790036</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9634357792760926</v>
+        <v>0.9649422183742007</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8251716825458342</v>
+        <v>0.8284816610910795</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2527896095874091</v>
+        <v>0.2500784364137729</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6794498654696784</v>
+        <v>0.6787080328570818</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8692047263177922</v>
+        <v>0.8699788098405723</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7861486886030216</v>
+        <v>0.7849337679606007</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2168385684974814</v>
+        <v>0.218253133834822</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.563322310283535</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1233390523361956</v>
+        <v>0.1233390523361957</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3552429933848258</v>
+        <v>0.3519350825370591</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5883070512047504</v>
+        <v>0.5915680752177502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4606731297216475</v>
+        <v>0.4626887247385771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08625485129744878</v>
+        <v>0.08589759388832549</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.475771033705897</v>
+        <v>0.4796804020403816</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8181399969969396</v>
+        <v>0.8182398861986302</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5603842884719928</v>
+        <v>0.5625231896250557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1181835801480035</v>
+        <v>0.116732521324609</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4266912749900306</v>
+        <v>0.4248492559064733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7064774800613026</v>
+        <v>0.7080186590746456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5254623365924369</v>
+        <v>0.5261811701618381</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.107676706093531</v>
+        <v>0.1078998439087202</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4743051022715645</v>
+        <v>0.4774682550735683</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6944064480639822</v>
+        <v>0.6984092882123877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5723116257871901</v>
+        <v>0.5734536172604129</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1325291550232</v>
+        <v>0.1345094974435347</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6053645091475942</v>
+        <v>0.6042942037660297</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9013368492496691</v>
+        <v>0.9038511767521866</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6663560488435294</v>
+        <v>0.6727696174106972</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1599703158985904</v>
+        <v>0.1583155619712062</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5167441301157311</v>
+        <v>0.5154471992564271</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7775898124335746</v>
+        <v>0.7773525348007854</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6025814865138555</v>
+        <v>0.6067295205394636</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1402156574316118</v>
+        <v>0.1387691125351631</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2987227548901796</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08229214654913217</v>
+        <v>0.08229214654913218</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.297898968825733</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1325869019309437</v>
+        <v>0.130769421518008</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.369340066794569</v>
+        <v>0.3744623130896197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2504355157046086</v>
+        <v>0.2521666645636884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04044513525542166</v>
+        <v>0.04041261648437424</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2894063058153584</v>
+        <v>0.2788768810316869</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3823654054389521</v>
+        <v>0.3849931652881389</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2355768706723269</v>
+        <v>0.2339345782908433</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06664832015465551</v>
+        <v>0.0658353982424091</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.24934239826258</v>
+        <v>0.2508950498920489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3963425091628458</v>
+        <v>0.4015055671950457</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.26057799120742</v>
+        <v>0.2592704753593775</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05929132056214016</v>
+        <v>0.05720866711508266</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.296686763717677</v>
+        <v>0.2858657225180718</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5462714959961918</v>
+        <v>0.5497459157426942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4209247964973458</v>
+        <v>0.4204928335106924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0780120195071098</v>
+        <v>0.07677150054526519</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4188559917857524</v>
+        <v>0.4166502347440565</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5216972704463063</v>
+        <v>0.522102539569874</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3730082058062847</v>
+        <v>0.3685444036057677</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1008044534028952</v>
+        <v>0.1018417007720591</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3534009043336075</v>
+        <v>0.3543616003309061</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5086943158011831</v>
+        <v>0.5077911512593031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3710904097616847</v>
+        <v>0.3642866149613287</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0833172629536329</v>
+        <v>0.0839789960792405</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1320660214877376</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07080423222234417</v>
+        <v>0.07080423222234415</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1033409885508738</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03690707246609527</v>
+        <v>0.0379624175508431</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07029593357728543</v>
+        <v>0.07180697209011101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05413885628183039</v>
+        <v>0.05270996511778733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0251648319346776</v>
+        <v>0.02577521494765287</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1042856446398416</v>
+        <v>0.107376978948645</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1037591042328426</v>
+        <v>0.1057804414760888</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09760122656124551</v>
+        <v>0.09473343080141573</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05484823141783254</v>
+        <v>0.05433653842490994</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08265739545709595</v>
+        <v>0.07942884285205912</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0983460112305594</v>
+        <v>0.09882390737245532</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08528030239443526</v>
+        <v>0.08707299383138718</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04474894072243207</v>
+        <v>0.04408832006163674</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09169766260727642</v>
+        <v>0.09228095930171898</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1403533505678384</v>
+        <v>0.1474513776839414</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.116696989756108</v>
+        <v>0.1170270497638233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05630532845530623</v>
+        <v>0.05774086728326631</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1764466030794302</v>
+        <v>0.1764688684743274</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1810330108721872</v>
+        <v>0.1836899217804902</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1713537204079968</v>
+        <v>0.1754966155953955</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08778032812064976</v>
+        <v>0.09138626350760456</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.127862955695375</v>
+        <v>0.1264232451944783</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1526476709503238</v>
+        <v>0.1496485291516286</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1390852213758128</v>
+        <v>0.1364695109471832</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0693972105310719</v>
+        <v>0.06866518499480471</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.07463972005581436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06772159950696474</v>
+        <v>0.06772159950696473</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.08532568615218733</v>
@@ -1501,7 +1501,7 @@
         <v>0.1305182603386645</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07113001467018878</v>
+        <v>0.07113001467018877</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.09229945297725992</v>
@@ -1513,7 +1513,7 @@
         <v>0.1090178336860827</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06976543698027694</v>
+        <v>0.06976543698027693</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06571541533648262</v>
+        <v>0.0674978562229115</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04768070947243143</v>
+        <v>0.04606129049880118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0485682438430711</v>
+        <v>0.04908594700827727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04466805364211507</v>
+        <v>0.04668059876753398</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05817777957883432</v>
+        <v>0.05724864344262581</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08968191647588084</v>
+        <v>0.08730284205140117</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09369056138381671</v>
+        <v>0.09570504398619582</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05439743174913372</v>
+        <v>0.05481847680908138</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07059537519097484</v>
+        <v>0.07057330845058433</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0792362542719962</v>
+        <v>0.07855263345068358</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08487719587619055</v>
+        <v>0.08522400054919214</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05582909074240941</v>
+        <v>0.05600756327127119</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1491464796830496</v>
+        <v>0.146846572653884</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1323697154695893</v>
+        <v>0.1288430882779909</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1105941664250428</v>
+        <v>0.1108536586284124</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09515283416711832</v>
+        <v>0.09469804048322625</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1208572156797139</v>
+        <v>0.1244175447546427</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1570362139521047</v>
+        <v>0.1553251911745505</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1767857018242478</v>
+        <v>0.1745728793277714</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09156783243133078</v>
+        <v>0.09127533215458028</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.119447584394344</v>
+        <v>0.119683259920089</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1304650328231736</v>
+        <v>0.1334653846934349</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1396681110637268</v>
+        <v>0.1386202589595611</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08305878048416833</v>
+        <v>0.08459802811639236</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4184355226542751</v>
+        <v>0.4206750455528657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07944826271950657</v>
+        <v>0.07795703078252395</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5954253542089712</v>
+        <v>0.5961312239354161</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4912804575366539</v>
+        <v>0.4903669355975773</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.119086193978789</v>
+        <v>0.1184181477089327</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.544704203860465</v>
+        <v>0.5450909527022776</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4655411691895628</v>
+        <v>0.4641178742951955</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1021802560258225</v>
+        <v>0.1021148609654936</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4633770096604093</v>
+        <v>0.4655816956750568</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0995366328128586</v>
+        <v>0.09979285974013072</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6340260702513091</v>
+        <v>0.6342134912009012</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5338602065694077</v>
+        <v>0.5316721693369082</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1387704893502798</v>
+        <v>0.1383096580329775</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5736908535048751</v>
+        <v>0.5739189378405558</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4963613103609708</v>
+        <v>0.4959272555984746</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1164543098162483</v>
+        <v>0.1165591015863938</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28468</v>
+        <v>28577</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>41821</v>
+        <v>42760</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38493</v>
+        <v>38432</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5633</v>
+        <v>5961</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>50173</v>
+        <v>51730</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>101126</v>
+        <v>103900</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>88520</v>
+        <v>89006</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15872</v>
+        <v>15835</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>85690</v>
+        <v>85358</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>153207</v>
+        <v>151539</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>132948</v>
+        <v>132093</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>26521</v>
+        <v>26074</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51119</v>
+        <v>50646</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>67458</v>
+        <v>68045</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>63456</v>
+        <v>62253</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27749</v>
+        <v>26980</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>75745</v>
+        <v>76862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>132082</v>
+        <v>132525</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114766</v>
+        <v>113681</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42931</v>
+        <v>42814</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>119725</v>
+        <v>118383</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>191903</v>
+        <v>194170</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>170511</v>
+        <v>167984</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>63814</v>
+        <v>59760</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>160257</v>
+        <v>161215</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>198964</v>
+        <v>201111</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>177979</v>
+        <v>179142</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>31874</v>
+        <v>32411</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>295065</v>
+        <v>295825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>379137</v>
+        <v>378853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>297986</v>
+        <v>299196</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>80342</v>
+        <v>79513</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>468000</v>
+        <v>466126</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>585653</v>
+        <v>587983</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>485697</v>
+        <v>484858</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125181</v>
+        <v>122181</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>196058</v>
+        <v>196290</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>234451</v>
+        <v>236278</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>208068</v>
+        <v>207426</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63696</v>
+        <v>64851</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>329840</v>
+        <v>329844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>401586</v>
+        <v>401459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>322189</v>
+        <v>323657</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>119052</v>
+        <v>118487</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>518063</v>
+        <v>516488</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>630163</v>
+        <v>629836</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>524383</v>
+        <v>522092</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>174438</v>
+        <v>173629</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>284535</v>
+        <v>285162</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>402985</v>
+        <v>402437</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>314513</v>
+        <v>315148</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>86388</v>
+        <v>87749</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>387333</v>
+        <v>385248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>563760</v>
+        <v>565451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>411791</v>
+        <v>410838</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>120909</v>
+        <v>120136</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>684814</v>
+        <v>681781</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>967508</v>
+        <v>976461</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>737837</v>
+        <v>737406</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>216654</v>
+        <v>216375</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>331862</v>
+        <v>328638</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>444755</v>
+        <v>444289</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>353634</v>
+        <v>352946</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>126215</v>
+        <v>126322</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>431006</v>
+        <v>430622</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>587469</v>
+        <v>588388</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>446590</v>
+        <v>448382</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>157537</v>
+        <v>155847</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>747274</v>
+        <v>746458</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1025071</v>
+        <v>1025984</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>790539</v>
+        <v>789317</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>269753</v>
+        <v>271513</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>103034</v>
+        <v>102075</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>220718</v>
+        <v>221941</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>156610</v>
+        <v>157295</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60432</v>
+        <v>60181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>113254</v>
+        <v>114185</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>251755</v>
+        <v>251786</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>177001</v>
+        <v>177676</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>87088</v>
+        <v>86019</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>225328</v>
+        <v>224355</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>482446</v>
+        <v>483499</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>344606</v>
+        <v>345077</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>154786</v>
+        <v>155106</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>137567</v>
+        <v>138484</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>260523</v>
+        <v>262025</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>194562</v>
+        <v>194950</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>92852</v>
+        <v>94240</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>144103</v>
+        <v>143848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>277356</v>
+        <v>278129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>210473</v>
+        <v>212498</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117880</v>
+        <v>116661</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>272883</v>
+        <v>272198</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>531008</v>
+        <v>530846</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>395181</v>
+        <v>397902</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>201561</v>
+        <v>199481</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14333</v>
+        <v>14136</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>52359</v>
+        <v>53085</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32615</v>
+        <v>32841</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24645</v>
+        <v>24625</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>57991</v>
+        <v>55881</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>84930</v>
+        <v>85514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>48195</v>
+        <v>47859</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40579</v>
+        <v>40084</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>76917</v>
+        <v>77396</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>144222</v>
+        <v>146101</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>87245</v>
+        <v>86808</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>72229</v>
+        <v>69692</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32072</v>
+        <v>30903</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>77442</v>
+        <v>77934</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>54819</v>
+        <v>54762</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>47536</v>
+        <v>46780</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>83930</v>
+        <v>83488</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>115878</v>
+        <v>115968</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>76310</v>
+        <v>75397</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61375</v>
+        <v>62007</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>109017</v>
+        <v>109314</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>185105</v>
+        <v>184776</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>124247</v>
+        <v>121969</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>101497</v>
+        <v>102303</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10798</v>
+        <v>11107</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21510</v>
+        <v>21972</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16276</v>
+        <v>15846</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10244</v>
+        <v>10493</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>35669</v>
+        <v>36727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>36306</v>
+        <v>37014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>33789</v>
+        <v>32797</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>24087</v>
+        <v>23863</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52456</v>
+        <v>50407</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>64505</v>
+        <v>64818</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>55162</v>
+        <v>56321</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>37869</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26829</v>
+        <v>27000</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>42946</v>
+        <v>45118</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>35082</v>
+        <v>35182</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22921</v>
+        <v>23505</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>60351</v>
+        <v>60359</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>63345</v>
+        <v>64275</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>59322</v>
+        <v>60757</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38550</v>
+        <v>40134</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>81144</v>
+        <v>80230</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>100121</v>
+        <v>98154</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>89964</v>
+        <v>88272</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>58727</v>
+        <v>58108</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>13793</v>
+        <v>14167</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>11817</v>
+        <v>11416</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11963</v>
+        <v>12090</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13856</v>
+        <v>14480</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19426</v>
+        <v>19116</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>34593</v>
+        <v>33676</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>36898</v>
+        <v>37692</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>25274</v>
+        <v>25469</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>38389</v>
+        <v>38377</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>50202</v>
+        <v>49769</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>54333</v>
+        <v>54555</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>43257</v>
+        <v>43395</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31303</v>
+        <v>30821</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32806</v>
+        <v>31932</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27240</v>
+        <v>27304</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>29516</v>
+        <v>29375</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>40355</v>
+        <v>41544</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>60574</v>
+        <v>59914</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>69624</v>
+        <v>68753</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>42543</v>
+        <v>42407</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>64955</v>
+        <v>65083</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>82659</v>
+        <v>84560</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>89407</v>
+        <v>88736</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>64355</v>
+        <v>65547</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>793742</v>
+        <v>797990</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>280672</v>
+        <v>275404</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1498584</v>
+        <v>1500361</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1147150</v>
+        <v>1145017</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>445020</v>
+        <v>442523</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2535138</v>
+        <v>2536938</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1970146</v>
+        <v>1964123</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>742821</v>
+        <v>742346</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>878993</v>
+        <v>883175</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>351639</v>
+        <v>352544</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1595736</v>
+        <v>1596208</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1246574</v>
+        <v>1241465</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>518579</v>
+        <v>516857</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2670047</v>
+        <v>2671108</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2100575</v>
+        <v>2098738</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>846590</v>
+        <v>847352</v>
       </c>
     </row>
     <row r="36">
